--- a/Bloques de Direcciones Proyecto.xlsx
+++ b/Bloques de Direcciones Proyecto.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blessing Rivas\Documents\UNAH\AÑO 2018\ASIGNATURAS PERIODO IX\Redes de Datos I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOZABETH GARCIA\Documents\GitHub\ProyectoRedes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8395F22-E435-48BD-8BB1-7E028DF652BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
   <si>
     <t>172.16.0.0/16</t>
   </si>
@@ -144,12 +145,252 @@
   </si>
   <si>
     <t>172.16.1.241</t>
+  </si>
+  <si>
+    <t>10.0.0.25</t>
+  </si>
+  <si>
+    <t>10.0.0.26</t>
+  </si>
+  <si>
+    <t>10.0.0.30</t>
+  </si>
+  <si>
+    <t>10.0.0.37</t>
+  </si>
+  <si>
+    <t>10.0.0.38</t>
+  </si>
+  <si>
+    <t>10.0.0.29</t>
+  </si>
+  <si>
+    <t>Primera Asignable</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>10.0.0.5</t>
+  </si>
+  <si>
+    <t>10.0.0.9</t>
+  </si>
+  <si>
+    <t>10.0.0.13</t>
+  </si>
+  <si>
+    <t>10.0.0.17</t>
+  </si>
+  <si>
+    <t>10.0.0.21</t>
+  </si>
+  <si>
+    <t>10.0.0.33</t>
+  </si>
+  <si>
+    <t>10.0.0.41</t>
+  </si>
+  <si>
+    <t>10.0.0.45</t>
+  </si>
+  <si>
+    <t>#subred</t>
+  </si>
+  <si>
+    <t>10.0.0.2</t>
+  </si>
+  <si>
+    <t>10.0.0.6</t>
+  </si>
+  <si>
+    <t>10.0.0.10</t>
+  </si>
+  <si>
+    <t>10.0.0.14</t>
+  </si>
+  <si>
+    <t>10.0.0.18</t>
+  </si>
+  <si>
+    <t>10.0.0.22</t>
+  </si>
+  <si>
+    <t>10.0.0.34</t>
+  </si>
+  <si>
+    <t>10.0.0.42</t>
+  </si>
+  <si>
+    <t>10.0.0.46</t>
+  </si>
+  <si>
+    <t>Router Extremo 1</t>
+  </si>
+  <si>
+    <t>Router Extremo 2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>linea de consola</t>
+  </si>
+  <si>
+    <t>linea VTY</t>
+  </si>
+  <si>
+    <t>R1class</t>
+  </si>
+  <si>
+    <t>R2class</t>
+  </si>
+  <si>
+    <t>R3class</t>
+  </si>
+  <si>
+    <t>R4class</t>
+  </si>
+  <si>
+    <t>R5class</t>
+  </si>
+  <si>
+    <t>R6class</t>
+  </si>
+  <si>
+    <t>R7class</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S61</t>
+  </si>
+  <si>
+    <t>S62</t>
+  </si>
+  <si>
+    <t>S63</t>
+  </si>
+  <si>
+    <t>S100</t>
+  </si>
+  <si>
+    <t>S11class</t>
+  </si>
+  <si>
+    <t>S12class</t>
+  </si>
+  <si>
+    <t>S13class</t>
+  </si>
+  <si>
+    <t>S31class</t>
+  </si>
+  <si>
+    <t>S32class</t>
+  </si>
+  <si>
+    <t>S61class</t>
+  </si>
+  <si>
+    <t>S62class</t>
+  </si>
+  <si>
+    <t>S63class</t>
+  </si>
+  <si>
+    <t>S100class</t>
+  </si>
+  <si>
+    <t>R1cisco</t>
+  </si>
+  <si>
+    <t>R2cisco</t>
+  </si>
+  <si>
+    <t>R3cisco</t>
+  </si>
+  <si>
+    <t>R4cisco</t>
+  </si>
+  <si>
+    <t>R5cisco</t>
+  </si>
+  <si>
+    <t>R6cisco</t>
+  </si>
+  <si>
+    <t>R7cisco</t>
+  </si>
+  <si>
+    <t>S11cisco</t>
+  </si>
+  <si>
+    <t>S12cisco</t>
+  </si>
+  <si>
+    <t>S13cisco</t>
+  </si>
+  <si>
+    <t>S31cisco</t>
+  </si>
+  <si>
+    <t>S32cisco</t>
+  </si>
+  <si>
+    <t>S61cisco</t>
+  </si>
+  <si>
+    <t>S62cisco</t>
+  </si>
+  <si>
+    <t>S63cisco</t>
+  </si>
+  <si>
+    <t>S100cisco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,9 +446,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,30 +732,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -562,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <f>B4+1</f>
+        <f t="shared" ref="G4:G11" si="0">B4+1</f>
         <v>96</v>
       </c>
       <c r="H4" s="1">
@@ -594,7 +839,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G11" si="0">B5+1</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="H5" s="1">
@@ -875,7 +1120,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -895,7 +1140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>2</v>
       </c>
@@ -915,7 +1160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -935,7 +1180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -955,7 +1200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>8</v>
       </c>
@@ -975,14 +1220,473 @@
         <v>16</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="K4:K11">
-    <sortCondition descending="1" ref="K11"/>
+  <sortState ref="B4:B11">
+    <sortCondition descending="1" ref="B11"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bloques de Direcciones Proyecto.xlsx
+++ b/Bloques de Direcciones Proyecto.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOZABETH GARCIA\Documents\GitHub\ProyectoRedes1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blessing Rivas\Documents\GitHub\ProyectoRedes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8395F22-E435-48BD-8BB1-7E028DF652BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
   <si>
     <t>172.16.0.0/16</t>
   </si>
@@ -385,12 +384,75 @@
   </si>
   <si>
     <t>S100cisco</t>
+  </si>
+  <si>
+    <t>Rango de direcciones para DHCP</t>
+  </si>
+  <si>
+    <t>Direcciones reservadas</t>
+  </si>
+  <si>
+    <t>172.16.0.0 - 172.16.0.127</t>
+  </si>
+  <si>
+    <t>172.16.0.0 , 172.16.0.1, 172.16.0.127</t>
+  </si>
+  <si>
+    <t>172.16.1.160 - 172.16.1.191</t>
+  </si>
+  <si>
+    <t>172.16.1.160 , 172.16.1.161 , 172.16.1.191</t>
+  </si>
+  <si>
+    <t>172.16.1.128 - 172.16.1.159</t>
+  </si>
+  <si>
+    <t>172.16.1.128 , 172.16.1.129 , 172.16.1.159</t>
+  </si>
+  <si>
+    <t>172.16.1.0 - 172.16.1.127</t>
+  </si>
+  <si>
+    <t>172.16.1.0 , 172.16.1.1 , 172.16.1.127</t>
+  </si>
+  <si>
+    <t>172.16.1.192 - 172.16.1.223</t>
+  </si>
+  <si>
+    <t>172.16.1.192 , 172.16.1.193, 172.16.1.223</t>
+  </si>
+  <si>
+    <t>172.16.1.224 - 172.16.1.239</t>
+  </si>
+  <si>
+    <t>172.16.1.224 , 172.16.1.225 , 172.16.1.239</t>
+  </si>
+  <si>
+    <t>172.16.0.128 - 172.16.0.255</t>
+  </si>
+  <si>
+    <t>172.16.0.128 , 172.16.0.129 , 172.16.0.255</t>
+  </si>
+  <si>
+    <t>172.16.1.240 - 172.16.1.255</t>
+  </si>
+  <si>
+    <t>172.16.1.240 , 172.16.1.241 , 172.16.1.255</t>
+  </si>
+  <si>
+    <t>172.16.2.0 - 172.16.2.3</t>
+  </si>
+  <si>
+    <t>172.16.2.0 , 172.16.2.1 , 172.16.2.3</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,10 +511,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,11 +797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,10 +817,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1442,249 +1507,429 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B4:B11">
     <sortCondition descending="1" ref="B11"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="21">
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/Bloques de Direcciones Proyecto.xlsx
+++ b/Bloques de Direcciones Proyecto.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blessing Rivas\Documents\GitHub\ProyectoRedes1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOZABETH GARCIA\Documents\GitHub\ProyectoRedes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5941EC-99D9-484F-956E-012464DC9404}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="151">
   <si>
     <t>172.16.0.0/16</t>
   </si>
@@ -447,12 +448,42 @@
   </si>
   <si>
     <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>#vlan</t>
+  </si>
+  <si>
+    <t>nombre Vlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloque de dirección </t>
+  </si>
+  <si>
+    <t>mascara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administracion </t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>172.16.0.64</t>
+  </si>
+  <si>
+    <t>finanzas</t>
+  </si>
+  <si>
+    <t>contabilidad</t>
+  </si>
+  <si>
+    <t>172.16.1.176</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,6 +547,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,11 +838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +858,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1748,14 +1789,14 @@
       <c r="A58" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="7"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="5" t="s">
         <v>10</v>
       </c>
@@ -1764,14 +1805,14 @@
       <c r="A59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="7"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="5" t="s">
         <v>16</v>
       </c>
@@ -1780,14 +1821,14 @@
       <c r="A60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="7"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="5" t="s">
         <v>25</v>
       </c>
@@ -1796,14 +1837,14 @@
       <c r="A61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="7"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="5" t="s">
         <v>25</v>
       </c>
@@ -1812,14 +1853,14 @@
       <c r="A62" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="7"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="5" t="s">
         <v>16</v>
       </c>
@@ -1828,14 +1869,14 @@
       <c r="A63" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="5" t="s">
         <v>25</v>
       </c>
@@ -1844,14 +1885,14 @@
       <c r="A64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7" t="s">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="5" t="s">
         <v>36</v>
       </c>
@@ -1860,14 +1901,14 @@
       <c r="A65" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="5" t="s">
         <v>16</v>
       </c>
@@ -1876,14 +1917,14 @@
       <c r="A66" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7" t="s">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="7"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="5" t="s">
         <v>36</v>
       </c>
@@ -1892,23 +1933,148 @@
       <c r="A67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="7"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="5" t="s">
         <v>140</v>
       </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="7">
+        <v>10</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="11">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="7">
+        <v>20</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="11">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="7">
+        <v>10</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="11">
+        <v>255255255240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="7">
+        <v>20</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="11">
+        <v>255255255240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
   </sheetData>
   <sortState ref="B4:B11">
     <sortCondition descending="1" ref="B11"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
@@ -1925,11 +2091,6 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/Bloques de Direcciones Proyecto.xlsx
+++ b/Bloques de Direcciones Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOZABETH GARCIA\Documents\GitHub\ProyectoRedes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5941EC-99D9-484F-956E-012464DC9404}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF855BBF-D0E6-446F-BA4A-D040AE41A341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,14 +549,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,10 +858,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1789,14 +1789,14 @@
       <c r="A58" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="5" t="s">
         <v>10</v>
       </c>
@@ -1805,14 +1805,14 @@
       <c r="A59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="5" t="s">
         <v>16</v>
       </c>
@@ -1821,14 +1821,14 @@
       <c r="A60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="5" t="s">
         <v>25</v>
       </c>
@@ -1837,14 +1837,14 @@
       <c r="A61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="5" t="s">
         <v>25</v>
       </c>
@@ -1853,14 +1853,14 @@
       <c r="A62" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="5" t="s">
         <v>16</v>
       </c>
@@ -1869,14 +1869,14 @@
       <c r="A63" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="5" t="s">
         <v>25</v>
       </c>
@@ -1885,14 +1885,14 @@
       <c r="A64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="5" t="s">
         <v>36</v>
       </c>
@@ -1901,14 +1901,14 @@
       <c r="A65" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="5" t="s">
         <v>16</v>
       </c>
@@ -1917,14 +1917,14 @@
       <c r="A66" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="5" t="s">
         <v>36</v>
       </c>
@@ -1933,14 +1933,14 @@
       <c r="A67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="5" t="s">
         <v>140</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="D72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="9">
         <v>255255255192</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="D73" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="9">
         <v>255255255192</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="D74" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="9">
         <v>255255255240</v>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       <c r="D75" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="9">
         <v>255255255240</v>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="10"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2070,11 +2070,6 @@
     <sortCondition descending="1" ref="B11"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
@@ -2091,6 +2086,11 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/Bloques de Direcciones Proyecto.xlsx
+++ b/Bloques de Direcciones Proyecto.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOZABETH GARCIA\Documents\GitHub\ProyectoRedes1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blessing Rivas\Documents\UNAH\AÑO 2018\ASIGNATURAS PERIODO IX\Redes de Datos I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF855BBF-D0E6-446F-BA4A-D040AE41A341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="169">
   <si>
     <t>172.16.0.0/16</t>
   </si>
@@ -393,18 +392,6 @@
     <t>Direcciones reservadas</t>
   </si>
   <si>
-    <t>172.16.0.0 - 172.16.0.127</t>
-  </si>
-  <si>
-    <t>172.16.0.0 , 172.16.0.1, 172.16.0.127</t>
-  </si>
-  <si>
-    <t>172.16.1.160 - 172.16.1.191</t>
-  </si>
-  <si>
-    <t>172.16.1.160 , 172.16.1.161 , 172.16.1.191</t>
-  </si>
-  <si>
     <t>172.16.1.128 - 172.16.1.159</t>
   </si>
   <si>
@@ -478,12 +465,78 @@
   </si>
   <si>
     <t>172.16.1.176</t>
+  </si>
+  <si>
+    <t>indicar los rangos de las vlan y el nombre de cada pool</t>
+  </si>
+  <si>
+    <t>Nombre Pool</t>
+  </si>
+  <si>
+    <t>LANS11-10-POOL</t>
+  </si>
+  <si>
+    <t>172.16.0.0 - 172.16.0.63</t>
+  </si>
+  <si>
+    <t>172.16.0.0 , 172.16.0.1, 172.16.0.63</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>172.16.0.64 - 172.16.0.127</t>
+  </si>
+  <si>
+    <t>172.16.0.64 , 172.16.0.1 , 172.16.0.127</t>
+  </si>
+  <si>
+    <t>LANS13-POOL</t>
+  </si>
+  <si>
+    <t>172.16.1.160 - 172.16.1.175</t>
+  </si>
+  <si>
+    <t>172.16.1.160 , 172.16.1.161 , 172.16.1.175</t>
+  </si>
+  <si>
+    <t>172.16.1.176 - 172.16.1.191</t>
+  </si>
+  <si>
+    <t>172.16.1.176 , 172.16.1.177 , 172.16.1.191</t>
+  </si>
+  <si>
+    <t>LANS11-20-POOL</t>
+  </si>
+  <si>
+    <t>LANS12-10-POOL</t>
+  </si>
+  <si>
+    <t>LANS12-20-POOL</t>
+  </si>
+  <si>
+    <t>LANS31-POOL</t>
+  </si>
+  <si>
+    <t>LANS32-POOL</t>
+  </si>
+  <si>
+    <t>LANS61-POOL</t>
+  </si>
+  <si>
+    <t>LANS62-POOL</t>
+  </si>
+  <si>
+    <t>LANS63-POOL</t>
+  </si>
+  <si>
+    <t>LANS100-POOL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,7 +609,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -838,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,10 +918,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1687,7 +1747,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>88</v>
       </c>
@@ -1701,7 +1761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>89</v>
       </c>
@@ -1715,7 +1775,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>90</v>
       </c>
@@ -1729,7 +1789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>91</v>
       </c>
@@ -1743,7 +1803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
@@ -1757,7 +1817,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>93</v>
       </c>
@@ -1771,7 +1831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>94</v>
       </c>
@@ -1785,312 +1845,400 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="5" t="s">
+      <c r="E58" s="12"/>
+      <c r="F58" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11" t="s">
+      <c r="C65" s="12"/>
+      <c r="D65" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="5" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11" t="s">
+      <c r="G69" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="11" t="s">
+      <c r="C73" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11" t="s">
+      <c r="D73" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="5" t="s">
+      <c r="E73" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B72" s="7">
-        <v>10</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="9">
-        <v>255255255192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="7">
-        <v>20</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="9">
-        <v>255255255192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="B74" s="7">
         <v>10</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>26</v>
+        <v>141</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E74" s="9">
-        <v>255255255240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B75" s="7">
         <v>20</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="E75" s="9">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="7">
+        <v>10</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="9">
         <v>255255255240</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="7">
+        <v>20</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="9">
+        <v>255255255240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
   </sheetData>
   <sortState ref="B4:B11">
     <sortCondition descending="1" ref="B11"/>
   </sortState>
-  <mergeCells count="21">
-    <mergeCell ref="B67:C67"/>
+  <mergeCells count="26">
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
